--- a/Documentation/PackMan.xlsx
+++ b/Documentation/PackMan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workspaces\SQLPackMan\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381061AC-8C6F-419A-B610-26C9ECE61EE0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF0E6E9-F726-4379-8536-677578E2F5A2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-1320" windowWidth="24240" windowHeight="13740" xr2:uid="{7258F074-F972-4DA8-8064-F794CA219493}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="123">
   <si>
     <t>MaxEnvironment</t>
   </si>
@@ -285,9 +285,6 @@
     <t>Navigation Properties</t>
   </si>
   <si>
-    <t>List&lt;PackageItem&gt;</t>
-  </si>
-  <si>
     <t>Unmapped Properties</t>
   </si>
   <si>
@@ -409,6 +406,9 @@
   </si>
   <si>
     <t>List&lt;MigrationResult&gt;</t>
+  </si>
+  <si>
+    <t>ICollection&lt;PackageItem&gt;</t>
   </si>
 </sst>
 </file>
@@ -856,13 +856,14 @@
   <dimension ref="B1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
@@ -881,143 +882,140 @@
         <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>80</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>80</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J6" t="s">
         <v>35</v>
@@ -1025,37 +1023,37 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>80</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -1066,7 +1064,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>22</v>
@@ -1074,24 +1072,22 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>80</v>
@@ -1099,10 +1095,10 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>26</v>
@@ -1110,13 +1106,13 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1126,12 +1122,12 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/PackMan.xlsx
+++ b/Documentation/PackMan.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workspaces\SQLPackMan\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF0E6E9-F726-4379-8536-677578E2F5A2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2CBE5C-0443-4022-BA33-24CFCAA177ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-1320" windowWidth="24240" windowHeight="13740" xr2:uid="{7258F074-F972-4DA8-8064-F794CA219493}"/>
+    <workbookView xWindow="1950" yWindow="705" windowWidth="18900" windowHeight="11505" xr2:uid="{7258F074-F972-4DA8-8064-F794CA219493}"/>
   </bookViews>
   <sheets>
-    <sheet name="Model" sheetId="1" r:id="rId1"/>
-    <sheet name="Flow" sheetId="10" r:id="rId2"/>
-    <sheet name="DevUI" sheetId="2" r:id="rId3"/>
-    <sheet name="AdminUI" sheetId="3" r:id="rId4"/>
-    <sheet name="TesterUI" sheetId="4" r:id="rId5"/>
-    <sheet name="CreatePackage" sheetId="5" r:id="rId6"/>
-    <sheet name="EditPackage" sheetId="6" r:id="rId7"/>
-    <sheet name="PackageDetails" sheetId="7" r:id="rId8"/>
-    <sheet name="CreatePackageItem" sheetId="8" r:id="rId9"/>
-    <sheet name="Sheet5" sheetId="9" r:id="rId10"/>
+    <sheet name="ToDo" sheetId="9" r:id="rId1"/>
+    <sheet name="Model" sheetId="1" r:id="rId2"/>
+    <sheet name="Flow" sheetId="10" r:id="rId3"/>
+    <sheet name="DevUI" sheetId="2" r:id="rId4"/>
+    <sheet name="AdminUI" sheetId="3" r:id="rId5"/>
+    <sheet name="TesterUI" sheetId="4" r:id="rId6"/>
+    <sheet name="CreatePackage" sheetId="5" r:id="rId7"/>
+    <sheet name="EditPackage" sheetId="6" r:id="rId8"/>
+    <sheet name="PackageDetails" sheetId="7" r:id="rId9"/>
+    <sheet name="CreatePackageItem" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="139">
   <si>
     <t>MaxEnvironment</t>
   </si>
@@ -123,12 +123,6 @@
     <t>Database</t>
   </si>
   <si>
-    <t>Crea</t>
-  </si>
-  <si>
-    <t>Pack</t>
-  </si>
-  <si>
     <t>PackageItem</t>
   </si>
   <si>
@@ -409,6 +403,60 @@
   </si>
   <si>
     <t>ICollection&lt;PackageItem&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item </t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Sub</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Packages</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Packages </t>
+  </si>
+  <si>
+    <t>DbObject edit, details, delete</t>
+  </si>
+  <si>
+    <t>PackageItems</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Add object search</t>
+  </si>
+  <si>
+    <t>Type drop down filter</t>
+  </si>
+  <si>
+    <t>Name search filter</t>
+  </si>
+  <si>
+    <t>Select / add to Package</t>
+  </si>
+  <si>
+    <t>jumping column width Description</t>
+  </si>
+  <si>
+    <t>remove Database column from package list, Make db filter required for search</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Back to List - save DB copy from add new object</t>
   </si>
 </sst>
 </file>
@@ -852,10 +900,174 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7A9738-1DE8-4AFB-93CC-DBD4A970F9E9}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C722ABE-57B3-44CC-9A17-C1D1A12610F7}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D460AB-CF74-4393-917D-7182D672B37B}">
   <dimension ref="B1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -882,189 +1094,189 @@
         <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="F6" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>22</v>
@@ -1072,33 +1284,33 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>26</v>
@@ -1106,13 +1318,13 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1122,12 +1334,12 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1136,25 +1348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7A9738-1DE8-4AFB-93CC-DBD4A970F9E9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82ACA91D-CA82-49C7-BC9B-1AC70FD1F64E}">
   <dimension ref="A1:E40"/>
   <sheetViews>
@@ -1173,23 +1367,23 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1197,13 +1391,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1211,13 +1405,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1225,18 +1419,18 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1246,13 +1440,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1260,13 +1454,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1274,13 +1468,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1289,243 +1483,243 @@
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" s="6">
         <v>0</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24" s="6">
         <v>1</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C35" s="6">
         <v>2</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C36">
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1534,7 +1728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDEE1C7-5225-4704-99C1-93F816BF2B10}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1583,7 +1777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB33A630-5746-48F6-B1C4-40D10274E538}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -1678,7 +1872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FCE4C7-8DC0-4179-85DA-39B266994A89}">
   <dimension ref="B2:B3"/>
   <sheetViews>
@@ -1706,7 +1900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724A4E43-EAEC-425A-A0BE-F1960FFF2A5D}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1723,7 +1917,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1732,23 +1926,23 @@
         <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -1756,7 +1950,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -1767,11 +1961,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951B02CC-EE95-434F-BBAD-43BAC3A18F78}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38:G39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -1779,7 +1975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1A919A-03B2-4F8D-B274-70FCA59126F7}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1789,22 +1985,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C722ABE-57B3-44CC-9A17-C1D1A12610F7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>